--- a/SLR_database.xlsx
+++ b/SLR_database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="432">
   <si>
     <t>Gornitz</t>
   </si>
@@ -1302,9 +1302,6 @@
     <t>Central Estimate (m)</t>
   </si>
   <si>
-    <t>Upper Estimate</t>
-  </si>
-  <si>
     <t>Upper Estimate Definition</t>
   </si>
   <si>
@@ -1327,6 +1324,12 @@
   </si>
   <si>
     <t>Central End Year Value</t>
+  </si>
+  <si>
+    <t>Central Estimate Definition</t>
+  </si>
+  <si>
+    <t>Upper Estimate (m)</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1764,7 +1767,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,34 +1831,34 @@
         <v>421</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>429</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>430</v>
       </c>
       <c r="U1" s="15"/>
       <c r="V1" s="18"/>
@@ -2015,11 +2018,11 @@
         <v>10</v>
       </c>
       <c r="P4" s="22">
-        <f t="shared" ref="P3:P66" si="0">(H4)/(T4-S4)</f>
+        <f t="shared" ref="P4:P62" si="0">(H4)/(T4-S4)</f>
         <v>1.2033333333333333E-2</v>
       </c>
       <c r="R4" s="22">
-        <f t="shared" ref="R3:R66" si="1">(L4)/(T4-S4)</f>
+        <f t="shared" ref="R4:R62" si="1">(L4)/(T4-S4)</f>
         <v>1.805E-2</v>
       </c>
       <c r="S4" s="1">
@@ -2071,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="Q5" s="24">
-        <f t="shared" ref="Q4:Q67" si="2">(J5)/(T5-S5)</f>
+        <f t="shared" ref="Q5:Q67" si="2">(J5)/(T5-S5)</f>
         <v>2.8750000000000001E-2</v>
       </c>
       <c r="S5" s="1">
@@ -6068,11 +6071,11 @@
         <v>126</v>
       </c>
       <c r="P77" s="22">
-        <f t="shared" ref="P67:P130" si="4">(H77)/(T77-S77)</f>
+        <f t="shared" ref="P77:P130" si="4">(H77)/(T77-S77)</f>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="R77" s="22">
-        <f t="shared" ref="R67:R130" si="5">(L77)/(T77-S77)</f>
+        <f t="shared" ref="R77:R130" si="5">(L77)/(T77-S77)</f>
         <v>6.9499999999999996E-3</v>
       </c>
       <c r="S77" s="1">
@@ -9453,7 +9456,7 @@
         <v>4.6363636363636364E-3</v>
       </c>
       <c r="Q132" s="24">
-        <f t="shared" ref="Q132:Q195" si="8">(J132)/(T132-S132)</f>
+        <f t="shared" ref="Q132:Q177" si="8">(J132)/(T132-S132)</f>
         <v>6.4545454545454541E-3</v>
       </c>
       <c r="R132" s="22">
@@ -14771,7 +14774,7 @@
         <v>2.7666666666666668E-3</v>
       </c>
       <c r="Q216" s="24">
-        <f t="shared" ref="Q196:Q259" si="11">(J216)/(T216-S216)</f>
+        <f t="shared" ref="Q216:Q259" si="11">(J216)/(T216-S216)</f>
         <v>4.5000000000000005E-3</v>
       </c>
       <c r="R216" s="22">
@@ -17697,7 +17700,7 @@
         <v>411</v>
       </c>
       <c r="Q261" s="24">
-        <f t="shared" ref="Q260:Q323" si="14">(J261)/(T261-S261)</f>
+        <f t="shared" ref="Q261:Q323" si="14">(J261)/(T261-S261)</f>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="S261" s="1">
